--- a/DB_fieldDescriptions.xlsx
+++ b/DB_fieldDescriptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joel_CSC122\csc122\CSC122_classMaterial\2020SP\assignment02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Desktop/csc122/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFFCEF2-6A43-564B-86A7-BDBB7EAB2455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23660" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicleTable" sheetId="1" r:id="rId1"/>
@@ -57,9 +58,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>license plate</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -106,12 +104,15 @@
   </si>
   <si>
     <t>shop</t>
+  </si>
+  <si>
+    <t>licensePlate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,20 +434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,15 +455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -470,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -478,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -486,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -494,49 +495,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -549,20 +550,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -578,76 +579,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
